--- a/Lab_13Marzo.xlsx
+++ b/Lab_13Marzo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eacaad692783367a/Cursos y Entrenamientos/Secure Coding/Reybanpac Marzo 2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{6E5D09C1-2A08-40E3-B54E-4959832F51B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F5F146-2D1F-40A8-BD86-C6029838A3E4}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{6E5D09C1-2A08-40E3-B54E-4959832F51B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{334FD0D6-DEB5-406D-8508-B0208E831189}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="2370" windowWidth="15380" windowHeight="7670" xr2:uid="{8D7E6670-0514-42E0-BB2F-39451D5DAC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Labs" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="349">
   <si>
     <t>DEPARTAMENTO</t>
   </si>
@@ -530,13 +531,568 @@
   </si>
   <si>
     <t>3.141.32.216</t>
+  </si>
+  <si>
+    <t>2/2 checks passed</t>
+  </si>
+  <si>
+    <t>ec2-3-144-248-136.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>3.144.248.136</t>
+  </si>
+  <si>
+    <t>2024/03/13 07:32 GMT-5</t>
+  </si>
+  <si>
+    <t>ec2-3-147-140-15.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>3.147.140.15</t>
+  </si>
+  <si>
+    <t>i-09f3d57299c5f6a30</t>
+  </si>
+  <si>
+    <t>ec2-18-119-119-205.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>18.119.119.205</t>
+  </si>
+  <si>
+    <t>2024/03/13 07:34 GMT-5</t>
+  </si>
+  <si>
+    <t>i-0473f295b96ba836e</t>
+  </si>
+  <si>
+    <t>ec2-18-221-96-49.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>18.221.96.49</t>
+  </si>
+  <si>
+    <t>i-0f4f65dc0cb7c6627</t>
+  </si>
+  <si>
+    <t>ec2-18-191-200-91.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>18.191.200.91</t>
+  </si>
+  <si>
+    <t>i-0a4d816e2a43ede4e</t>
+  </si>
+  <si>
+    <t>ec2-18-222-32-58.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>18.222.32.58</t>
+  </si>
+  <si>
+    <t>i-079b3885dfe44d174</t>
+  </si>
+  <si>
+    <t>ec2-18-189-189-150.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>18.189.189.150</t>
+  </si>
+  <si>
+    <t>i-0667ec14008a5ac5c</t>
+  </si>
+  <si>
+    <t>ec2-3-129-39-5.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>3.129.39.5</t>
+  </si>
+  <si>
+    <t>i-0c457c9f13dd04683</t>
+  </si>
+  <si>
+    <t>ec2-18-191-238-255.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>18.191.238.255</t>
+  </si>
+  <si>
+    <t>i-07d90e0152473c104</t>
+  </si>
+  <si>
+    <t>ec2-18-220-151-243.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>18.220.151.243</t>
+  </si>
+  <si>
+    <t>i-02388b2b6c9705d51</t>
+  </si>
+  <si>
+    <t>ec2-3-137-166-245.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>3.137.166.245</t>
+  </si>
+  <si>
+    <t>i-06bc8905bbca5efea</t>
+  </si>
+  <si>
+    <t>ec2-3-133-154-199.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>3.133.154.199</t>
+  </si>
+  <si>
+    <t>i-011ede9c6711cd69a</t>
+  </si>
+  <si>
+    <t>ec2-52-14-44-11.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>52.14.44.11</t>
+  </si>
+  <si>
+    <t>i-0c1ce0e0864fcebce</t>
+  </si>
+  <si>
+    <t>ec2-18-224-68-126.us-east-2.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>18.224.68.126</t>
+  </si>
+  <si>
+    <t>Launch instances</t>
+  </si>
+  <si>
+    <t>Launch instance from template</t>
+  </si>
+  <si>
+    <t>Migrate a server</t>
+  </si>
+  <si>
+    <t>Connect</t>
+  </si>
+  <si>
+    <t>Stop instance</t>
+  </si>
+  <si>
+    <t>Start instance</t>
+  </si>
+  <si>
+    <t>Reboot instance</t>
+  </si>
+  <si>
+    <t>Hibernate instance</t>
+  </si>
+  <si>
+    <t>Terminate instance</t>
+  </si>
+  <si>
+    <t>Instance settings</t>
+  </si>
+  <si>
+    <t>Attach to Auto Scaling Group</t>
+  </si>
+  <si>
+    <t>Change termination protection</t>
+  </si>
+  <si>
+    <t>Change stop protection</t>
+  </si>
+  <si>
+    <t>Change shutdown behavior</t>
+  </si>
+  <si>
+    <t>Change auto-recovery behavior</t>
+  </si>
+  <si>
+    <t>Change instance type</t>
+  </si>
+  <si>
+    <t>Change Nitro Enclaves</t>
+  </si>
+  <si>
+    <t>Change credit specification</t>
+  </si>
+  <si>
+    <t>Change resource based naming options</t>
+  </si>
+  <si>
+    <t>Modify instance placement</t>
+  </si>
+  <si>
+    <t>Modify Capacity Reservation settings</t>
+  </si>
+  <si>
+    <t>Edit user data</t>
+  </si>
+  <si>
+    <t>Allow tags in instance metadata</t>
+  </si>
+  <si>
+    <t>Manage tags</t>
+  </si>
+  <si>
+    <t>Modify instance metadata options</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Attach network interface</t>
+  </si>
+  <si>
+    <t>Detach network interface</t>
+  </si>
+  <si>
+    <t>Connect RDS database</t>
+  </si>
+  <si>
+    <t>Change source/destination check</t>
+  </si>
+  <si>
+    <t>Disassociate Elastic IP address</t>
+  </si>
+  <si>
+    <t>Manage IP addresses</t>
+  </si>
+  <si>
+    <t>Manage ENA Express</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Change security groups</t>
+  </si>
+  <si>
+    <t>Get Windows password</t>
+  </si>
+  <si>
+    <t>Modify IAM role</t>
+  </si>
+  <si>
+    <t>Image and templates</t>
+  </si>
+  <si>
+    <t>Create image</t>
+  </si>
+  <si>
+    <t>Create template from instance</t>
+  </si>
+  <si>
+    <t>Launch more like this</t>
+  </si>
+  <si>
+    <t>Monitor and troubleshoot</t>
+  </si>
+  <si>
+    <t>Get system log</t>
+  </si>
+  <si>
+    <t>Get instance screenshot</t>
+  </si>
+  <si>
+    <t>Manage detailed monitoring</t>
+  </si>
+  <si>
+    <t>Manage CloudWatch alarms</t>
+  </si>
+  <si>
+    <t>EC2 serial console</t>
+  </si>
+  <si>
+    <t>Replace root volume</t>
+  </si>
+  <si>
+    <t>Instance: i-0e3da363d36d45f88 (kali VxV)</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Status and alarms </t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Instance summary</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t> i-0e3da363d36d45f88 (kali VxV)</t>
+  </si>
+  <si>
+    <t> 3.147.140.15 |open address </t>
+  </si>
+  <si>
+    <t>Private IPv4 addresses</t>
+  </si>
+  <si>
+    <t> 172.31.9.112</t>
+  </si>
+  <si>
+    <t>IPv6 address</t>
+  </si>
+  <si>
+    <t> ec2-3-147-140-15.us-east-2.compute.amazonaws.com |open address </t>
+  </si>
+  <si>
+    <t>Hostname type</t>
+  </si>
+  <si>
+    <t>IP name: ip-172-31-9-112.us-east-2.compute.internal</t>
+  </si>
+  <si>
+    <t>Private IP DNS name (IPv4 only)</t>
+  </si>
+  <si>
+    <t> ip-172-31-9-112.us-east-2.compute.internal</t>
+  </si>
+  <si>
+    <t>Answer private resource DNS name</t>
+  </si>
+  <si>
+    <t>Elastic IP addresses</t>
+  </si>
+  <si>
+    <t>Auto-assigned IP address</t>
+  </si>
+  <si>
+    <t> 3.147.140.15 [Public IP]</t>
+  </si>
+  <si>
+    <t>VPC ID</t>
+  </si>
+  <si>
+    <t> vpc-afe352c4 (Defecto) </t>
+  </si>
+  <si>
+    <t>AWS Compute Optimizer finding</t>
+  </si>
+  <si>
+    <t>Opt-in to AWS Compute Optimizer for recommendations.</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Learn more </t>
+  </si>
+  <si>
+    <t>IAM Role</t>
+  </si>
+  <si>
+    <t>Subnet ID</t>
+  </si>
+  <si>
+    <t> subnet-abd30ac0 </t>
+  </si>
+  <si>
+    <t>Auto Scaling Group name</t>
+  </si>
+  <si>
+    <t>IMDSv2</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>EC2 recommends setting IMDSv2 to required</t>
+  </si>
+  <si>
+    <t>Instance details</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t> Linux/UNIX (Inferred)</t>
+  </si>
+  <si>
+    <t>AMI ID</t>
+  </si>
+  <si>
+    <t> ami-042d647c75ca3673f (Kali 2023 + VNC)</t>
+  </si>
+  <si>
+    <t> Linux/UNIX</t>
+  </si>
+  <si>
+    <t>AMI name</t>
+  </si>
+  <si>
+    <t> Kali2023_ToolUpdate_VncServer</t>
+  </si>
+  <si>
+    <t>Termination protection</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Stop protection</t>
+  </si>
+  <si>
+    <t> Wed Mar 13 2024 07:32:43 GMT-0500 (Ecuador Time) (42 minutes)</t>
+  </si>
+  <si>
+    <t>AMI location</t>
+  </si>
+  <si>
+    <t> 482343539329/Kali2023_ToolUpdate_VncServer</t>
+  </si>
+  <si>
+    <t>Instance auto-recovery</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Lifecycle</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Stop-hibernate behavior</t>
+  </si>
+  <si>
+    <t>AMI Launch index</t>
+  </si>
+  <si>
+    <t>Key pair assigned at launch</t>
+  </si>
+  <si>
+    <t> KaliLinux_Key</t>
+  </si>
+  <si>
+    <t>State transition reason</t>
+  </si>
+  <si>
+    <t>Credit specification</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Kernel ID</t>
+  </si>
+  <si>
+    <t>State transition message</t>
+  </si>
+  <si>
+    <t>Usage operation</t>
+  </si>
+  <si>
+    <t> RunInstances</t>
+  </si>
+  <si>
+    <t>RAM disk ID</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t> 482343539329</t>
+  </si>
+  <si>
+    <t>Enclaves Support</t>
+  </si>
+  <si>
+    <t>Boot mode</t>
+  </si>
+  <si>
+    <t>Current instance boot mode</t>
+  </si>
+  <si>
+    <t> legacy-bios</t>
+  </si>
+  <si>
+    <t>Use RBN as guest OS hostname</t>
+  </si>
+  <si>
+    <t> Disabled</t>
+  </si>
+  <si>
+    <t>Answer RBN DNS hostname IPv4</t>
+  </si>
+  <si>
+    <t>Host and placement group</t>
+  </si>
+  <si>
+    <t>Host ID</t>
+  </si>
+  <si>
+    <t>Affinity</t>
+  </si>
+  <si>
+    <t>Placement group</t>
+  </si>
+  <si>
+    <t>Host resource group name</t>
+  </si>
+  <si>
+    <t>Tenancy</t>
+  </si>
+  <si>
+    <t> default</t>
+  </si>
+  <si>
+    <t>Placement group ID</t>
+  </si>
+  <si>
+    <t>Virtualization type</t>
+  </si>
+  <si>
+    <t> hvm</t>
+  </si>
+  <si>
+    <t>Reservation</t>
+  </si>
+  <si>
+    <t> r-0038d13fb180642d6</t>
+  </si>
+  <si>
+    <t>Partition number</t>
+  </si>
+  <si>
+    <t>Number of vCPUs</t>
+  </si>
+  <si>
+    <t>Capacity reservation</t>
+  </si>
+  <si>
+    <t>Capacity Reservation ID</t>
+  </si>
+  <si>
+    <t>Capacity Reservation setting</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Accelerators</t>
+  </si>
+  <si>
+    <t>Elastic Graphics ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +1157,30 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Var(--font-family-base-4om3hr,&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF16191F"/>
+      <name val="Var(--font-family-base-4om3hr,&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF16191F"/>
+      <name val="Var(--font-family-base-4om3hr,&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF16191F"/>
+      <name val="Var(--font-family-base-4om3hr,&quot;"/>
     </font>
   </fonts>
   <fills count="4">
@@ -697,7 +1277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -759,6 +1339,39 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -902,11 +1515,87 @@
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
@@ -935,23 +1624,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>44450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Control 1" hidden="1">
+            <xdr:cNvPr id="4097" name="Control 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
+                  <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FF14D6-E63A-30B8-8211-DE278452630D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -985,23 +1674,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>44450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="Control 2" hidden="1">
+            <xdr:cNvPr id="4098" name="Control 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
+                  <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8880EDB9-6D2B-2740-A581-1FE6220F0E43}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1035,23 +1724,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2051" name="Control 3" hidden="1">
+            <xdr:cNvPr id="4099" name="Control 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2051"/>
+                  <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC07017-87D0-1345-8D8C-1AF9E04222A0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1085,23 +1774,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2052" name="Control 4" hidden="1">
+            <xdr:cNvPr id="4100" name="Control 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2052"/>
+                  <a14:compatExt spid="_x0000_s4100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB06433B-1870-BB4E-B982-9CBC3517AA0D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1135,23 +1824,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2053" name="Control 5" hidden="1">
+            <xdr:cNvPr id="4101" name="Control 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2053"/>
+                  <a14:compatExt spid="_x0000_s4101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2D7EBC-4107-8D57-05C0-033CFB089472}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1185,23 +1874,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2054" name="Control 6" hidden="1">
+            <xdr:cNvPr id="4102" name="Control 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2054"/>
+                  <a14:compatExt spid="_x0000_s4102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01817B1-A6F7-87C7-ACA9-DA503EA0AA7A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1235,23 +1924,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2055" name="Control 7" hidden="1">
+            <xdr:cNvPr id="4103" name="Control 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2055"/>
+                  <a14:compatExt spid="_x0000_s4103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C141D398-2B54-8C45-0E10-7CA2F1948316}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1285,23 +1974,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2056" name="Control 8" hidden="1">
+            <xdr:cNvPr id="4104" name="Control 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2056"/>
+                  <a14:compatExt spid="_x0000_s4104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEB223C-56E3-6E5F-C6FD-10CDF58165E8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1335,23 +2024,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>44450</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>82550</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2057" name="Control 9" hidden="1">
+            <xdr:cNvPr id="4105" name="Control 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2057"/>
+                  <a14:compatExt spid="_x0000_s4105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E07CA1D-2574-9E02-0E77-F8223B964604}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1385,23 +2074,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>44450</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>82550</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2058" name="Control 10" hidden="1">
+            <xdr:cNvPr id="4106" name="Control 10" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2058"/>
+                  <a14:compatExt spid="_x0000_s4106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DF52F5-655D-C356-560C-A4093916F2D6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1435,23 +2124,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2059" name="Control 11" hidden="1">
+            <xdr:cNvPr id="4107" name="Control 11" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2059"/>
+                  <a14:compatExt spid="_x0000_s4107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8DDA8C-F289-CDF2-0D7B-EFF18DF23771}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1485,23 +2174,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2060" name="Control 12" hidden="1">
+            <xdr:cNvPr id="4108" name="Control 12" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2060"/>
+                  <a14:compatExt spid="_x0000_s4108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E969E28-3C14-A13D-500F-21CBBD88B246}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1535,23 +2224,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2061" name="Control 13" hidden="1">
+            <xdr:cNvPr id="4109" name="Control 13" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2061"/>
+                  <a14:compatExt spid="_x0000_s4109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702EB0EA-540B-0290-D6D1-FC6A1D9A5E04}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1585,23 +2274,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2062" name="Control 14" hidden="1">
+            <xdr:cNvPr id="4110" name="Control 14" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2062"/>
+                  <a14:compatExt spid="_x0000_s4110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3753F8-4BE9-FB68-58D0-8772E5E75EA2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1635,23 +2324,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2063" name="Control 15" hidden="1">
+            <xdr:cNvPr id="4111" name="Control 15" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2063"/>
+                  <a14:compatExt spid="_x0000_s4111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31382616-51DC-CD9F-5315-D2582CBDEE1A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1685,23 +2374,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2064" name="Control 16" hidden="1">
+            <xdr:cNvPr id="4112" name="Control 16" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2064"/>
+                  <a14:compatExt spid="_x0000_s4112"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE56274-62EA-4BFF-6E9D-3235B2E847E1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1735,23 +2424,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2065" name="Control 17" hidden="1">
+            <xdr:cNvPr id="4113" name="Control 17" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2065"/>
+                  <a14:compatExt spid="_x0000_s4113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E989E3-1695-D89C-39A6-BCD90AC837BB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1785,23 +2474,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2066" name="Control 18" hidden="1">
+            <xdr:cNvPr id="4114" name="Control 18" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2066"/>
+                  <a14:compatExt spid="_x0000_s4114"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D3C619-0D35-CE1C-8EB3-84DC4A54E158}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1835,23 +2524,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2067" name="Control 19" hidden="1">
+            <xdr:cNvPr id="4115" name="Control 19" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2067"/>
+                  <a14:compatExt spid="_x0000_s4115"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F004F8-273C-3EB2-C7E8-66112A06970F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1882,6 +2571,961 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>69850</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Control 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Control 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Control 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>31750</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>69850</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2053" name="Control 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>31750</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>69850</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2054" name="Control 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2055" name="Control 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2056" name="Control 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>44450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>82550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2057" name="Control 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>44450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>82550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2058" name="Control 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>88900</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2059" name="Control 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>88900</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2060" name="Control 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2061" name="Control 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2062" name="Control 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>101600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2063" name="Control 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>101600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2064" name="Control 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>69850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>107950</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2065" name="Control 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>69850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>107950</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2066" name="Control 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2067" name="Control 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3105,7 +4749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1737831-7FAD-4909-936B-1D87A8FAC506}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3140,8 +4784,8 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>128</v>
+      <c r="D2" s="15" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29.5" thickBot="1">
@@ -3154,8 +4798,8 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>132</v>
+      <c r="D3" s="15" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29.5" thickBot="1">
@@ -3168,8 +4812,8 @@
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>135</v>
+      <c r="D4" s="15" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29.5" thickBot="1">
@@ -3182,8 +4826,8 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>138</v>
+      <c r="D5" s="15" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29.5" thickBot="1">
@@ -3196,8 +4840,8 @@
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>141</v>
+      <c r="D6" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29.5" thickBot="1">
@@ -3210,8 +4854,8 @@
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>144</v>
+      <c r="D7" s="15" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29.5" thickBot="1">
@@ -3224,8 +4868,8 @@
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>147</v>
+      <c r="D8" s="15" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29.5" thickBot="1">
@@ -3238,8 +4882,8 @@
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>150</v>
+      <c r="D9" s="15" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29.5" thickBot="1">
@@ -3252,8 +4896,8 @@
       <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>153</v>
+      <c r="D10" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29.5" thickBot="1">
@@ -3266,8 +4910,8 @@
       <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>156</v>
+      <c r="D11" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29.5" thickBot="1">
@@ -3280,8 +4924,8 @@
       <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>159</v>
+      <c r="D12" s="15" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29.5" thickBot="1">
@@ -3294,8 +4938,8 @@
       <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>162</v>
+      <c r="D13" s="15" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3318,6 +4962,2443 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC0590A-BA5C-45D5-A148-50E5331B283C}">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="A1:Q215"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18">
+      <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="22"/>
+    </row>
+    <row r="74" spans="1:1" ht="184">
+      <c r="A74" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="9"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="18">
+      <c r="A77" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="22"/>
+    </row>
+    <row r="85" spans="1:1" ht="31">
+      <c r="A85" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="27">
+      <c r="A88" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18">
+      <c r="A89" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="43.5">
+      <c r="A90" s="32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18">
+      <c r="A91" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="101.5">
+      <c r="A98" s="32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="36">
+      <c r="A100" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18">
+      <c r="A101" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="36">
+      <c r="A102" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="27">
+      <c r="A103" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18">
+      <c r="A107" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18">
+      <c r="A109" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18">
+      <c r="A110" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="43.5">
+      <c r="A112" s="32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18">
+      <c r="A113" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="45">
+      <c r="A114" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="29">
+      <c r="A120" s="32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="18">
+      <c r="A121" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="27">
+      <c r="A125" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="31">
+      <c r="A128" s="31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="18">
+      <c r="A131" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="72.5">
+      <c r="A133" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="18">
+      <c r="A139" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="18">
+      <c r="A140" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="45">
+      <c r="A145" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="27">
+      <c r="A147" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="18">
+      <c r="A148" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="18">
+      <c r="A152" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="18">
+      <c r="A156" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="29">
+      <c r="A157" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="18">
+      <c r="A158" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="18">
+      <c r="A160" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="18">
+      <c r="A164" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="18">
+      <c r="A176" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="27">
+      <c r="A178" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="27">
+      <c r="A180" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="18">
+      <c r="A182" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="46.5">
+      <c r="A184" s="31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="18">
+      <c r="A192" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="18">
+      <c r="A196" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="27">
+      <c r="A201" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="46.5">
+      <c r="A206" s="31" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="18">
+      <c r="A208" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="27">
+      <c r="A210" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="31">
+      <c r="A212" s="31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="18">
+      <c r="A214" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" location="InstanceDetails:instanceId=i-0306f28acf31ebd61" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-0306f28acf31ebd61" xr:uid="{C0B1DB0F-C5BE-423E-B996-8B22332B7322}"/>
+    <hyperlink ref="C9" r:id="rId2" location="InstanceDetails:instanceId=i-0724c217777d48602" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-0724c217777d48602" xr:uid="{366A31CF-A842-4FE5-A4B7-ED55699807AC}"/>
+    <hyperlink ref="C10" r:id="rId3" location="InstanceDetails:instanceId=i-0c6d295ec93699ffc" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-0c6d295ec93699ffc" xr:uid="{32C4DD02-4A76-4B2C-9B47-37F36B2E36A6}"/>
+    <hyperlink ref="C11" r:id="rId4" location="InstanceDetails:instanceId=i-077bf9e51d784cc5f" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-077bf9e51d784cc5f" xr:uid="{0DA3C496-DA34-4720-9E9B-9070BF6991C3}"/>
+    <hyperlink ref="C12" r:id="rId5" location="InstanceDetails:instanceId=i-0e3da363d36d45f88" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-0e3da363d36d45f88" xr:uid="{03D8C8C0-BC37-4532-A549-E674B9494A77}"/>
+    <hyperlink ref="C13" r:id="rId6" location="InstanceDetails:instanceId=i-09f3d57299c5f6a30" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-09f3d57299c5f6a30" xr:uid="{71A94BBB-3D06-4261-ADA2-A8EF6902CC8A}"/>
+    <hyperlink ref="C14" r:id="rId7" location="InstanceDetails:instanceId=i-0473f295b96ba836e" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-0473f295b96ba836e" xr:uid="{ED62D583-B379-4D32-9ACD-EBF731697924}"/>
+    <hyperlink ref="C15" r:id="rId8" location="InstanceDetails:instanceId=i-0f4f65dc0cb7c6627" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-0f4f65dc0cb7c6627" xr:uid="{0E570D58-4D28-4A44-B385-46801447D976}"/>
+    <hyperlink ref="C16" r:id="rId9" location="InstanceDetails:instanceId=i-0a4d816e2a43ede4e" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-0a4d816e2a43ede4e" xr:uid="{E7B0F2E2-7C2A-495A-9853-CBF40B7BFD33}"/>
+    <hyperlink ref="C17" r:id="rId10" location="InstanceDetails:instanceId=i-079b3885dfe44d174" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-079b3885dfe44d174" xr:uid="{228C31D4-4540-4F37-B2D9-AA15CA0C3DA1}"/>
+    <hyperlink ref="C18" r:id="rId11" location="InstanceDetails:instanceId=i-0667ec14008a5ac5c" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-0667ec14008a5ac5c" xr:uid="{9D06A648-B787-4A14-9567-D8EFFF42A465}"/>
+    <hyperlink ref="C19" r:id="rId12" location="InstanceDetails:instanceId=i-0c457c9f13dd04683" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-0c457c9f13dd04683" xr:uid="{69027F64-8F68-493D-A839-EC8484E52BD3}"/>
+    <hyperlink ref="C20" r:id="rId13" location="InstanceDetails:instanceId=i-07d90e0152473c104" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-07d90e0152473c104" xr:uid="{A033128C-3973-4496-AF40-38599B831716}"/>
+    <hyperlink ref="C21" r:id="rId14" location="InstanceDetails:instanceId=i-02388b2b6c9705d51" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-02388b2b6c9705d51" xr:uid="{2610767E-7C7C-4D37-ABEC-5920DD8706C4}"/>
+    <hyperlink ref="C22" r:id="rId15" location="InstanceDetails:instanceId=i-06bc8905bbca5efea" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-06bc8905bbca5efea" xr:uid="{C229EF80-0FB9-451A-9567-84B5B0ADC0E5}"/>
+    <hyperlink ref="C23" r:id="rId16" location="InstanceDetails:instanceId=i-011ede9c6711cd69a" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-011ede9c6711cd69a" xr:uid="{70382BC5-1E5E-4DA9-BC13-3B5DAAAAB80D}"/>
+    <hyperlink ref="C24" r:id="rId17" location="InstanceDetails:instanceId=i-0c1ce0e0864fcebce" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - InstanceDetails:instanceId=i-0c1ce0e0864fcebce" xr:uid="{9D1D4A80-80D0-4859-BD09-0FFFF8C525E7}"/>
+    <hyperlink ref="A90" r:id="rId18" display="https://3.147.140.15/" xr:uid="{3DAEBB20-B1F9-4D50-ADAE-8EB71EF79F9E}"/>
+    <hyperlink ref="A98" r:id="rId19" display="https://ec2-3-147-140-15.us-east-2.compute.amazonaws.com/" xr:uid="{F433171A-66F5-4492-9E83-9A8E38125D4D}"/>
+    <hyperlink ref="A112" r:id="rId20" location="vpcs:vpcId=vpc-afe352c4" display="https://us-east-2.console.aws.amazon.com/vpc/home?region=us-east-2 - vpcs:vpcId=vpc-afe352c4" xr:uid="{863067D1-6BD7-4B9F-9BF3-0CA2FD37713D}"/>
+    <hyperlink ref="A116" r:id="rId21" location="/resource-details/ec2/arn:aws:ec2:us-east-2:482343539329:instance/i-0e3da363d36d45f88" display="https://us-east-2.console.aws.amazon.com/compute-optimizer/home? - /resource-details/ec2/arn:aws:ec2:us-east-2:482343539329:instance/i-0e3da363d36d45f88" xr:uid="{25E73702-0260-42A6-828D-8A122FC19F28}"/>
+    <hyperlink ref="A120" r:id="rId22" location="subnets:subnetId=subnet-abd30ac0" display="https://us-east-2.console.aws.amazon.com/vpc/home?region=us-east-2 - subnets:subnetId=subnet-abd30ac0" xr:uid="{08FCBF72-B0F6-4AF2-AC2D-44887E7198D1}"/>
+    <hyperlink ref="A127" r:id="rId23" display="https://aws.amazon.com/blogs/security/get-the-full-benefits-of-imdsv2-and-disable-imdsv1-across-your-aws-infrastructure/" xr:uid="{0776061D-2789-4461-95A9-CB15FBD88CC4}"/>
+    <hyperlink ref="A133" r:id="rId24" location="Images:visibility=private;imageId=ami-042d647c75ca3673f" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - Images:visibility=private;imageId=ami-042d647c75ca3673f" xr:uid="{9BEC5D1B-000B-4585-BFEC-27305E4E58A6}"/>
+    <hyperlink ref="A157" r:id="rId25" location="KeyPairs:keyName=KaliLinux_Key" display="https://us-east-2.console.aws.amazon.com/ec2/home?region=us-east-2 - KeyPairs:keyName=KaliLinux_Key" xr:uid="{0D5ECCCA-A8E7-4E69-8553-046542C01D59}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4115" r:id="rId28" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4115" r:id="rId28" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4114" r:id="rId30" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4114" r:id="rId30" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4113" r:id="rId31" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4113" r:id="rId31" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4112" r:id="rId32" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4112" r:id="rId32" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4111" r:id="rId33" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4111" r:id="rId33" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4110" r:id="rId34" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4110" r:id="rId34" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4109" r:id="rId35" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4109" r:id="rId35" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4108" r:id="rId36" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4108" r:id="rId36" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4107" r:id="rId37" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4107" r:id="rId37" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4106" r:id="rId38" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4106" r:id="rId38" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4105" r:id="rId39" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4105" r:id="rId39" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4104" r:id="rId40" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4104" r:id="rId40" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4103" r:id="rId41" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4103" r:id="rId41" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4102" r:id="rId42" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4102" r:id="rId42" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4101" r:id="rId43" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4101" r:id="rId43" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4100" r:id="rId44" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4100" r:id="rId44" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId45" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4099" r:id="rId45" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4098" r:id="rId46" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId47">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4098" r:id="rId46" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4097" r:id="rId48" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId47">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4097" r:id="rId48" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EE6D4E-9D5C-4E90-AB52-C7CCF86D8409}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Q24"/>
@@ -4320,258 +8401,208 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId20" name="Control 19">
+        <control shapeId="2049" r:id="rId20" name="Control 1">
           <controlPr defaultSize="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>69850</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId20" name="Control 19"/>
+        <control shapeId="2049" r:id="rId20" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId22" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId21">
+        <control shapeId="2050" r:id="rId22" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>107950</xdr:rowOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2066" r:id="rId22" name="Control 18"/>
+        <control shapeId="2050" r:id="rId22" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId23" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId21">
+        <control shapeId="2051" r:id="rId24" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>107950</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId23" name="Control 17"/>
+        <control shapeId="2051" r:id="rId24" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId24" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId21">
+        <control shapeId="2052" r:id="rId26" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId24" name="Control 16"/>
+        <control shapeId="2052" r:id="rId26" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId25" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId21">
+        <control shapeId="2053" r:id="rId27" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>69850</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId25" name="Control 15"/>
+        <control shapeId="2053" r:id="rId27" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId26" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId21">
+        <control shapeId="2054" r:id="rId28" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>69850</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId26" name="Control 14"/>
+        <control shapeId="2054" r:id="rId28" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId27" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId21">
+        <control shapeId="2055" r:id="rId29" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId27" name="Control 13"/>
+        <control shapeId="2055" r:id="rId29" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId28" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId21">
+        <control shapeId="2056" r:id="rId30" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>88900</xdr:rowOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId28" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId29" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>88900</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId29" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId30" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>82550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId30" name="Control 10"/>
+        <control shapeId="2056" r:id="rId30" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="2057" r:id="rId31" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId21">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -4595,209 +8626,259 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId32" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId21">
+        <control shapeId="2058" r:id="rId32" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>82550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId32" name="Control 8"/>
+        <control shapeId="2058" r:id="rId32" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId33" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId21">
+        <control shapeId="2059" r:id="rId33" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId33" name="Control 7"/>
+        <control shapeId="2059" r:id="rId33" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId34" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId21">
+        <control shapeId="2060" r:id="rId34" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId34" name="Control 6"/>
+        <control shapeId="2060" r:id="rId34" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId35" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId21">
+        <control shapeId="2061" r:id="rId35" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId35" name="Control 5"/>
+        <control shapeId="2061" r:id="rId35" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId36" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId21">
+        <control shapeId="2062" r:id="rId36" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>25400</xdr:rowOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId36" name="Control 4"/>
+        <control shapeId="2062" r:id="rId36" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId37" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId21">
+        <control shapeId="2063" r:id="rId37" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>25400</xdr:rowOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId37" name="Control 3"/>
+        <control shapeId="2063" r:id="rId37" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId38" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId39">
+        <control shapeId="2064" r:id="rId38" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId38" name="Control 2"/>
+        <control shapeId="2064" r:id="rId38" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId40" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId41">
+        <control shapeId="2065" r:id="rId39" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>69850</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId40" name="Control 1"/>
+        <control shapeId="2065" r:id="rId39" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId40" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>69850</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId40" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId41" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId41" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD293171-C1E0-49F6-8B40-70DF97E177D4}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:Q23"/>
@@ -5704,208 +9785,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId19" name="Control 1">
+        <control shapeId="1042" r:id="rId19" name="Control 18">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>25400</xdr:rowOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>139700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>177800</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId19" name="Control 1"/>
+        <control shapeId="1042" r:id="rId19" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId21" name="Control 2">
+        <control shapeId="1041" r:id="rId21" name="Control 17">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>127000</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>82550</xdr:rowOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>165100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId21" name="Control 2"/>
+        <control shapeId="1041" r:id="rId21" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId22" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1040" r:id="rId22" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>127000</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>165100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId22" name="Control 3"/>
+        <control shapeId="1040" r:id="rId22" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId24" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1039" r:id="rId23" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>88900</xdr:rowOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId24" name="Control 4"/>
+        <control shapeId="1039" r:id="rId23" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId25" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1038" r:id="rId24" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>88900</xdr:rowOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId25" name="Control 5"/>
+        <control shapeId="1038" r:id="rId24" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId26" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1037" r:id="rId25" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>139700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId26" name="Control 6"/>
+        <control shapeId="1037" r:id="rId25" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId27" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1036" r:id="rId26" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>139700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId27" name="Control 7"/>
+        <control shapeId="1036" r:id="rId26" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId28" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1035" r:id="rId27" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>127000</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId28" name="Control 8"/>
+        <control shapeId="1035" r:id="rId27" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId28" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>127000</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId28" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1033" r:id="rId29" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId23">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -5929,227 +10035,202 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId30" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1032" r:id="rId30" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>88900</xdr:rowOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>127000</xdr:rowOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId30" name="Control 10"/>
+        <control shapeId="1032" r:id="rId30" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId31" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1031" r:id="rId31" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>88900</xdr:rowOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>127000</xdr:rowOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId31" name="Control 11"/>
+        <control shapeId="1031" r:id="rId31" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId32" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1030" r:id="rId32" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>139700</xdr:rowOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId32" name="Control 12"/>
+        <control shapeId="1030" r:id="rId32" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId33" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1029" r:id="rId33" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>139700</xdr:rowOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId33" name="Control 13"/>
+        <control shapeId="1029" r:id="rId33" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId34" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1028" r:id="rId34" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId34" name="Control 14"/>
+        <control shapeId="1028" r:id="rId34" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId35" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1027" r:id="rId35" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId35" name="Control 15"/>
+        <control shapeId="1027" r:id="rId35" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId36" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1026" r:id="rId36" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId37">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>127000</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>165100</xdr:rowOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>82550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId36" name="Control 16"/>
+        <control shapeId="1026" r:id="rId36" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId37" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1025" r:id="rId38" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId37">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>127000</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>165100</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>69850</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId37" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId38" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>139700</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>177800</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId38" name="Control 18"/>
+        <control shapeId="1025" r:id="rId38" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
